--- a/results/2022_reps_by_state(8a-c).xlsx
+++ b/results/2022_reps_by_state(8a-c).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2C5BD-10BF-5944-AA73-03C14DDAA42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D739B1-5543-494C-B7B0-3FF6B173D2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{3C51D8BF-FBA2-9C4A-9E56-3DEB53A38B5E}"/>
   </bookViews>
@@ -16,10 +16,12 @@
     <sheet name="a vs. b vs. c" sheetId="3" r:id="rId1"/>
     <sheet name="a" sheetId="1" r:id="rId2"/>
     <sheet name="b" sheetId="2" r:id="rId3"/>
+    <sheet name="c" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_2022_reps_by_state_8a" localSheetId="1">a!$A$1:$J$51</definedName>
     <definedName name="_2022_reps_by_state_8b" localSheetId="2">b!$A$1:$J$51</definedName>
+    <definedName name="_2022_reps_by_state_8c" localSheetId="3">'c'!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,11 +77,27 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" xr16:uid="{6A082D4B-9E77-1A4C-A523-0508CA5BB1E5}" name="2022_reps_by_state(8c)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2022_reps_by_state(8c).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="66">
   <si>
     <t>XX</t>
   </si>
@@ -335,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -348,13 +366,741 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -394,6 +1140,10 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2022_reps_by_state(8b)" connectionId="2" xr16:uid="{A14A40F1-E6E4-7441-B23B-DEA09298E0DA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="2022_reps_by_state(8c)" connectionId="3" xr16:uid="{4C372148-8BA8-D546-96B9-9FCC6CECA46A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,42 +1446,42 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.1640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="11"/>
+    <col min="9" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="76" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -740,29 +1490,29 @@
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>61</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>61</v>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>61</v>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>64</v>
@@ -775,20 +1525,29 @@
       <c r="B3" s="11">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2</v>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3" s="11">
         <v>7</v>
       </c>
-      <c r="F3" s="12">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12">
-        <v>2</v>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -798,20 +1557,29 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -821,20 +1589,29 @@
       <c r="B5" s="11">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
-        <v>4</v>
-      </c>
-      <c r="D5" s="12">
-        <v>3</v>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
       </c>
       <c r="E5" s="11">
         <v>9</v>
       </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="12">
-        <v>3</v>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -844,19 +1621,28 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="11">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
@@ -867,20 +1653,29 @@
       <c r="B7" s="11">
         <v>52</v>
       </c>
-      <c r="C7" s="12">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12">
-        <v>4</v>
+      <c r="C7">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
       </c>
       <c r="E7" s="11">
         <v>47</v>
       </c>
-      <c r="F7" s="12">
-        <v>20</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
+      <c r="F7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+      <c r="H7" s="11">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>71</v>
+      </c>
+      <c r="J7">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -890,20 +1685,29 @@
       <c r="B8" s="11">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
       </c>
       <c r="E8" s="11">
         <v>8</v>
       </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -913,20 +1717,29 @@
       <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
       </c>
       <c r="E9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="12">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -936,19 +1749,28 @@
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
@@ -959,20 +1781,29 @@
       <c r="B11" s="11">
         <v>28</v>
       </c>
-      <c r="C11" s="12">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12">
-        <v>8</v>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
       </c>
       <c r="E11" s="11">
         <v>26</v>
       </c>
-      <c r="F11" s="12">
-        <v>11</v>
-      </c>
-      <c r="G11" s="12">
-        <v>7</v>
+      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>39</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -982,20 +1813,29 @@
       <c r="B12" s="11">
         <v>14</v>
       </c>
-      <c r="C12" s="12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="12">
-        <v>4</v>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
       </c>
       <c r="E12" s="11">
         <v>13</v>
       </c>
-      <c r="F12" s="12">
-        <v>6</v>
-      </c>
-      <c r="G12" s="12">
-        <v>4</v>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1005,20 +1845,29 @@
       <c r="B13" s="11">
         <v>2</v>
       </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1028,19 +1877,28 @@
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
     </row>
@@ -1051,20 +1909,29 @@
       <c r="B15" s="11">
         <v>17</v>
       </c>
-      <c r="C15" s="12">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
       </c>
       <c r="E15" s="11">
         <v>16</v>
       </c>
-      <c r="F15" s="12">
-        <v>6</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1074,854 +1941,1230 @@
       <c r="B16" s="11">
         <v>9</v>
       </c>
-      <c r="C16" s="12">
-        <v>3</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3</v>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
       </c>
       <c r="E16" s="11">
         <v>9</v>
       </c>
-      <c r="F16" s="12">
-        <v>3</v>
-      </c>
-      <c r="G16" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="11">
         <v>4</v>
       </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="11">
         <v>5</v>
       </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="11">
         <v>4</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
       <c r="E18" s="11">
         <v>4</v>
       </c>
-      <c r="F18" s="12">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="11">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="11">
         <v>6</v>
       </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12">
-        <v>2</v>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
       </c>
       <c r="E19" s="11">
         <v>6</v>
       </c>
-      <c r="F19" s="12">
-        <v>3</v>
-      </c>
-      <c r="G19" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="11">
         <v>6</v>
       </c>
-      <c r="C20" s="12">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
       </c>
       <c r="E20" s="11">
         <v>6</v>
       </c>
-      <c r="F20" s="12">
-        <v>3</v>
-      </c>
-      <c r="G20" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
       </c>
       <c r="E21" s="11">
         <v>3</v>
       </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="11">
         <v>8</v>
       </c>
-      <c r="C22" s="12">
-        <v>3</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
       </c>
       <c r="E22" s="11">
         <v>8</v>
       </c>
-      <c r="F22" s="12">
-        <v>3</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" s="11">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="11">
         <v>9</v>
       </c>
-      <c r="C23" s="12">
-        <v>4</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
       </c>
       <c r="E23" s="11">
         <v>9</v>
       </c>
-      <c r="F23" s="12">
-        <v>4</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23" s="11">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="11">
         <v>13</v>
       </c>
-      <c r="C24" s="12">
-        <v>5</v>
-      </c>
-      <c r="D24" s="12">
-        <v>2</v>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
       </c>
       <c r="E24" s="11">
         <v>13</v>
       </c>
-      <c r="F24" s="12">
-        <v>5</v>
-      </c>
-      <c r="G24" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24" s="11">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="11">
         <v>8</v>
       </c>
-      <c r="C25" s="12">
-        <v>2</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
       </c>
       <c r="E25" s="11">
         <v>8</v>
       </c>
-      <c r="F25" s="12">
-        <v>2</v>
-      </c>
-      <c r="G25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="11">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26" s="11">
         <v>4</v>
       </c>
-      <c r="F26" s="12">
-        <v>2</v>
-      </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="11">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="11">
         <v>8</v>
       </c>
-      <c r="C27" s="12">
-        <v>3</v>
-      </c>
-      <c r="D27" s="12">
-        <v>2</v>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
       </c>
       <c r="E27" s="11">
         <v>8</v>
       </c>
-      <c r="F27" s="12">
-        <v>3</v>
-      </c>
-      <c r="G27" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27" s="11">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="11">
         <v>2</v>
       </c>
-      <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="11">
         <v>3</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="11">
         <v>3</v>
       </c>
-      <c r="F29" s="12">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="11">
         <v>4</v>
       </c>
-      <c r="C30" s="12">
-        <v>2</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
       </c>
       <c r="E30" s="11">
         <v>5</v>
       </c>
-      <c r="F30" s="12">
-        <v>1</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0</v>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
       </c>
       <c r="E31" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="11">
         <v>12</v>
       </c>
-      <c r="C32" s="12">
-        <v>5</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0</v>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
       </c>
       <c r="E32" s="11">
         <v>12</v>
       </c>
-      <c r="F32" s="12">
-        <v>4</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32" s="11">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
       </c>
       <c r="E33" s="11">
         <v>3</v>
       </c>
-      <c r="F33" s="12">
-        <v>2</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33" s="11">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="11">
         <v>26</v>
       </c>
-      <c r="C34" s="12">
-        <v>11</v>
-      </c>
-      <c r="D34" s="12">
-        <v>5</v>
+      <c r="C34">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
       </c>
       <c r="E34" s="11">
         <v>24</v>
       </c>
-      <c r="F34" s="12">
-        <v>11</v>
-      </c>
-      <c r="G34" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34" s="11">
+        <v>26</v>
+      </c>
+      <c r="I34">
+        <v>36</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="11">
         <v>14</v>
       </c>
-      <c r="C35" s="12">
-        <v>5</v>
-      </c>
-      <c r="D35" s="12">
-        <v>2</v>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
       </c>
       <c r="E35" s="11">
         <v>13</v>
       </c>
-      <c r="F35" s="12">
-        <v>5</v>
-      </c>
-      <c r="G35" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35" s="11">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="11">
         <v>1</v>
       </c>
-      <c r="C36" s="12">
-        <v>0</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" s="11">
         <v>2</v>
       </c>
-      <c r="F36" s="12">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="11">
         <v>15</v>
       </c>
-      <c r="C37" s="12">
-        <v>6</v>
-      </c>
-      <c r="D37" s="12">
-        <v>4</v>
+      <c r="C37">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
       </c>
       <c r="E37" s="11">
         <v>15</v>
       </c>
-      <c r="F37" s="12">
-        <v>6</v>
-      </c>
-      <c r="G37" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37" s="11">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="12">
-        <v>2</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" s="11">
         <v>6</v>
       </c>
-      <c r="F38" s="12">
-        <v>2</v>
-      </c>
-      <c r="G38" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="11">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="12">
-        <v>2</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0</v>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
       </c>
       <c r="E39" s="11">
         <v>6</v>
       </c>
-      <c r="F39" s="12">
-        <v>2</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39" s="11">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="11">
         <v>17</v>
       </c>
-      <c r="C40" s="12">
-        <v>7</v>
-      </c>
-      <c r="D40" s="12">
-        <v>3</v>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
       </c>
       <c r="E40" s="11">
         <v>16</v>
       </c>
-      <c r="F40" s="12">
-        <v>7</v>
-      </c>
-      <c r="G40" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40" s="11">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>23</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="11">
         <v>2</v>
       </c>
-      <c r="C41" s="12">
-        <v>0</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
       </c>
       <c r="E41" s="11">
         <v>2</v>
       </c>
-      <c r="F41" s="12">
-        <v>1</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="11">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="11">
         <v>7</v>
       </c>
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="12">
-        <v>2</v>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
       </c>
       <c r="E42" s="11">
         <v>7</v>
       </c>
-      <c r="F42" s="12">
-        <v>3</v>
-      </c>
-      <c r="G42" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42" s="11">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="11">
         <v>1</v>
       </c>
-      <c r="C43" s="12">
-        <v>1</v>
-      </c>
-      <c r="D43" s="12">
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="11">
         <v>2</v>
       </c>
-      <c r="F43" s="12">
-        <v>1</v>
-      </c>
-      <c r="G43" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="11">
         <v>9</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
         <v>4</v>
-      </c>
-      <c r="D44" s="12">
-        <v>3</v>
       </c>
       <c r="E44" s="11">
         <v>9</v>
       </c>
-      <c r="F44" s="12">
-        <v>3</v>
-      </c>
-      <c r="G44" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" s="11">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="11">
         <v>38</v>
       </c>
-      <c r="C45" s="12">
-        <v>15</v>
-      </c>
-      <c r="D45" s="12">
-        <v>10</v>
+      <c r="C45">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>23</v>
       </c>
       <c r="E45" s="11">
         <v>35</v>
       </c>
-      <c r="F45" s="12">
-        <v>14</v>
-      </c>
-      <c r="G45" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>49</v>
+      </c>
+      <c r="G45">
+        <v>21</v>
+      </c>
+      <c r="H45" s="11">
+        <v>38</v>
+      </c>
+      <c r="I45">
+        <v>53</v>
+      </c>
+      <c r="J45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="11">
         <v>4</v>
       </c>
-      <c r="C46" s="12">
-        <v>2</v>
-      </c>
-      <c r="D46" s="12">
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" s="11">
         <v>5</v>
       </c>
-      <c r="F46" s="12">
-        <v>1</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="11">
         <v>1</v>
       </c>
-      <c r="C47" s="12">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47" s="11">
         <v>2</v>
       </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="11">
         <v>11</v>
       </c>
-      <c r="C48" s="12">
-        <v>5</v>
-      </c>
-      <c r="D48" s="12">
-        <v>2</v>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
       </c>
       <c r="E48" s="11">
         <v>11</v>
       </c>
-      <c r="F48" s="12">
-        <v>4</v>
-      </c>
-      <c r="G48" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48" s="11">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="11">
         <v>10</v>
       </c>
-      <c r="C49" s="12">
-        <v>4</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0</v>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
       </c>
       <c r="E49" s="11">
         <v>10</v>
       </c>
-      <c r="F49" s="12">
-        <v>4</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49" s="11">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="11">
         <v>2</v>
       </c>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="11">
         <v>3</v>
       </c>
-      <c r="F50" s="12">
-        <v>1</v>
-      </c>
-      <c r="G50" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="11">
         <v>8</v>
       </c>
-      <c r="C51" s="12">
-        <v>3</v>
-      </c>
-      <c r="D51" s="12">
-        <v>3</v>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
       </c>
       <c r="E51" s="11">
         <v>8</v>
       </c>
-      <c r="F51" s="12">
-        <v>3</v>
-      </c>
-      <c r="G51" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" s="11">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>11</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="11">
         <v>1</v>
       </c>
-      <c r="C52" s="12">
-        <v>0</v>
-      </c>
-      <c r="D52" s="12">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" s="11">
         <v>2</v>
       </c>
-      <c r="F52" s="12">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0</v>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E52">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="greaterThan">
       <formula>$B3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="lessThan">
+      <formula>$B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F52">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+      <formula>$C3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
+      <formula>$C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G52">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+      <formula>$D3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
+      <formula>$D3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H52">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+      <formula>$B3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+      <formula>$B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I52">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>$C3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>$C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J52">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$D3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$D3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,10 +3176,10 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B51"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4004,10 +5247,10 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M51" sqref="L1:M51"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6068,4 +7311,2075 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B774F58-3333-754A-B55D-D56FE6062817}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.32069399999999998</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.17783599999999999</v>
+      </c>
+      <c r="F2" s="8">
+        <v>718579</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.264E-2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>558894.77777799999</v>
+      </c>
+      <c r="L2">
+        <f>G2-B2</f>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>H2-D2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.54963700000000004</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.45036300000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>736081</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>4.9637000000000001E-2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>368040.5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L51" si="0">G3-B3</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="1">H3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.43403700000000001</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.100704</v>
+      </c>
+      <c r="F4" s="8">
+        <v>795435.88888900005</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.7501999999999999E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>550686.38461499999</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.31246299999999999</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.31246299999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>753439</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.11246299999999999</v>
+      </c>
+      <c r="J5" s="8">
+        <v>602751.19999999995</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.60701799999999995</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.162213</v>
+      </c>
+      <c r="F6" s="8">
+        <v>761091.48076900002</v>
+      </c>
+      <c r="G6">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.384E-3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>557419.11267599999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.56506900000000004</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5.9930999999999998E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>722771.375</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3.4930999999999997E-2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>578217.1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.57819299999999996</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.42180699999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>721659.6</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.13609299999999999</v>
+      </c>
+      <c r="J8" s="8">
+        <v>515471.142857</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.56350699999999998</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.43649300000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <v>990837</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6.3506999999999994E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>495418.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.41381200000000001</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.12809699999999999</v>
+      </c>
+      <c r="F10" s="8">
+        <v>770375.964286</v>
+      </c>
+      <c r="G10">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3.555E-3</v>
+      </c>
+      <c r="J10" s="8">
+        <v>553090.43589700002</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.47693999999999998</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.119798</v>
+      </c>
+      <c r="F11" s="8">
+        <v>766091</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3.2560000000000002E-3</v>
+      </c>
+      <c r="J11" s="8">
+        <v>564488.105263</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.68667400000000001</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.31332599999999999</v>
+      </c>
+      <c r="F12" s="8">
+        <v>730068.5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2.0007E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>486712.33333300002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.31404100000000001</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.31404100000000001</v>
+      </c>
+      <c r="F13" s="8">
+        <v>920688.5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.9292E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>613792.33333299996</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.55248600000000003</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.27104299999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <v>754278.76470599999</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.6210000000000003E-2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>557510.39130400005</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.39255699999999999</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.17033499999999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>754475.55555599998</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2.4108999999999998E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>565856.66666700004</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.43714399999999998</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.43714399999999998</v>
+      </c>
+      <c r="F16" s="8">
+        <v>798101.5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.103811</v>
+      </c>
+      <c r="J16" s="8">
+        <v>532067.66666700004</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.42750700000000003</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.177507</v>
+      </c>
+      <c r="F17" s="8">
+        <v>735216.25</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2.7507E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>588173</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.339922</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.17325499999999999</v>
+      </c>
+      <c r="F18" s="8">
+        <v>751557</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3.5077999999999998E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>563667.75</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.33751799999999998</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.170851</v>
+      </c>
+      <c r="F19" s="8">
+        <v>776911.33333299996</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3.7482000000000001E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>582683.5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.58290500000000001</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.41709499999999999</v>
+      </c>
+      <c r="F20" s="8">
+        <v>681791</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8.3761000000000002E-2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>454527.33333300002</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.651617</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.223383</v>
+      </c>
+      <c r="F21" s="8">
+        <v>773159.75</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1.5254E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>562298</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.67349599999999998</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.32650400000000002</v>
+      </c>
+      <c r="F22" s="8">
+        <v>781496.55555599998</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1.8811999999999999E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>541036.07692300004</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.511849</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.6612E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>775726.30769199994</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1.1849E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>560246.77777799999</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.51012999999999997</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.013E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>713719</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1.013E-2</v>
+      </c>
+      <c r="J24" s="8">
+        <v>570975.19999999995</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.356047</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.106047</v>
+      </c>
+      <c r="F25" s="8">
+        <v>740978.5</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4.3952999999999999E-2</v>
+      </c>
+      <c r="J25" s="8">
+        <v>592782.80000000005</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.39368900000000001</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.14368900000000001</v>
+      </c>
+      <c r="F26" s="8">
+        <v>770035.125</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3.0051999999999999E-2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>560025.54545500001</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.39310200000000001</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.39310200000000001</v>
+      </c>
+      <c r="F27" s="8">
+        <v>542703.5</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.39310200000000001</v>
+      </c>
+      <c r="J27" s="8">
+        <v>542703.5</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.36232300000000001</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.36232300000000001</v>
+      </c>
+      <c r="F28" s="8">
+        <v>654444.33333299996</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.11232300000000001</v>
+      </c>
+      <c r="J28" s="8">
+        <v>490833.25</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.48255500000000001</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.26744499999999999</v>
+      </c>
+      <c r="F29" s="8">
+        <v>777115.5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1.7444999999999999E-2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>518077</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.54962299999999997</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.45037700000000003</v>
+      </c>
+      <c r="F30" s="8">
+        <v>689544.5</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.11704299999999999</v>
+      </c>
+      <c r="J30" s="8">
+        <v>459696.33333300002</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.54851000000000005</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.20149</v>
+      </c>
+      <c r="F31" s="8">
+        <v>774541.08333299996</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1.9098E-2</v>
+      </c>
+      <c r="J31" s="8">
+        <v>546734.88235299999</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.550647</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.449353</v>
+      </c>
+      <c r="F32" s="8">
+        <v>706740</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.199353</v>
+      </c>
+      <c r="J32" s="8">
+        <v>530055</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.55207200000000001</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2.4851000000000002E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>777528.88461499999</v>
+      </c>
+      <c r="G33">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7">
+        <v>3.483E-3</v>
+      </c>
+      <c r="J33" s="8">
+        <v>561548.63888900005</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.47844700000000001</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2.1552999999999999E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <v>746710.571429</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4.7629999999999999E-3</v>
+      </c>
+      <c r="J34" s="8">
+        <v>550207.78947399999</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.34917599999999999</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.34917599999999999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>779702</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.15082400000000001</v>
+      </c>
+      <c r="J35" s="8">
+        <v>389851</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.43571399999999999</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.102381</v>
+      </c>
+      <c r="F36" s="8">
+        <v>787256.53333300003</v>
+      </c>
+      <c r="G36">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36" s="7">
+        <v>7.143E-3</v>
+      </c>
+      <c r="J36" s="8">
+        <v>562326.09523800004</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.31941599999999998</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.31941599999999998</v>
+      </c>
+      <c r="F37" s="8">
+        <v>792703.2</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3.3702000000000003E-2</v>
+      </c>
+      <c r="J37" s="8">
+        <v>566216.571429</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.543099</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.123568</v>
+      </c>
+      <c r="F38" s="8">
+        <v>706916.66666700004</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4.3098999999999998E-2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>530187.5</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.48505900000000002</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7">
+        <v>4.4352999999999997E-2</v>
+      </c>
+      <c r="F39" s="8">
+        <v>765402.58823500003</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39" s="7">
+        <v>6.7980000000000002E-3</v>
+      </c>
+      <c r="J39" s="8">
+        <v>565732.34782599995</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.57352199999999998</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.42647800000000002</v>
+      </c>
+      <c r="F40" s="8">
+        <v>549081.5</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.42647800000000002</v>
+      </c>
+      <c r="J40" s="8">
+        <v>549081.5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.38756099999999999</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.244704</v>
+      </c>
+      <c r="F41" s="8">
+        <v>732101.714286</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41" s="7">
+        <v>5.4227999999999998E-2</v>
+      </c>
+      <c r="J41" s="8">
+        <v>569412.44444400002</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.29999900000000002</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.29999900000000002</v>
+      </c>
+      <c r="F42" s="8">
+        <v>887770</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.20000100000000001</v>
+      </c>
+      <c r="J42" s="8">
+        <v>443885</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.34609800000000002</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.234987</v>
+      </c>
+      <c r="F43" s="8">
+        <v>768544.11111099995</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1.2765E-2</v>
+      </c>
+      <c r="J43" s="8">
+        <v>576408.08333299996</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>38</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.42949399999999999</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7">
+        <v>8.7388999999999994E-2</v>
+      </c>
+      <c r="F44" s="8">
+        <v>767981.31578900001</v>
+      </c>
+      <c r="G44">
+        <v>53</v>
+      </c>
+      <c r="H44">
+        <v>23</v>
+      </c>
+      <c r="I44" s="7">
+        <v>4.4679999999999997E-3</v>
+      </c>
+      <c r="J44" s="8">
+        <v>550628.11320799997</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.33768700000000001</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.33768700000000001</v>
+      </c>
+      <c r="F45" s="8">
+        <v>818813</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4.3540000000000002E-3</v>
+      </c>
+      <c r="J45" s="8">
+        <v>545875.33333299996</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.69242899999999996</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.30757099999999998</v>
+      </c>
+      <c r="F46" s="8">
+        <v>643503</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.19242899999999999</v>
+      </c>
+      <c r="J46" s="8">
+        <v>321751.5</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.51816700000000004</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2.7288E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>786776.54545500001</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1.8166999999999999E-2</v>
+      </c>
+      <c r="J47" s="8">
+        <v>540908.875</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.581237</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.21876300000000001</v>
+      </c>
+      <c r="F48" s="8">
+        <v>771594.6</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48" s="7">
+        <v>9.8080000000000007E-3</v>
+      </c>
+      <c r="J48" s="8">
+        <v>551139</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.32424199999999997</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.32424199999999997</v>
+      </c>
+      <c r="F49" s="8">
+        <v>897522.5</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
+        <v>9.0910000000000001E-3</v>
+      </c>
+      <c r="J49" s="8">
+        <v>598348.33333299996</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.444079</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.194079</v>
+      </c>
+      <c r="F50" s="8">
+        <v>737184.125</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1.0467000000000001E-2</v>
+      </c>
+      <c r="J50" s="8">
+        <v>536133.90909099998</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.26329599999999997</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.26329599999999997</v>
+      </c>
+      <c r="F51" s="8">
+        <v>577719</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.236704</v>
+      </c>
+      <c r="J51" s="8">
+        <v>288859.5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>